--- a/Code/Results/Cases/Case_0_196/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_196/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1494293057081677</v>
+        <v>0.04945618783204964</v>
       </c>
       <c r="D2">
-        <v>0.004081901829097845</v>
+        <v>0.01281438384477074</v>
       </c>
       <c r="E2">
-        <v>1.460637553944309</v>
+        <v>0.4185757265276635</v>
       </c>
       <c r="F2">
-        <v>1.228787973919722</v>
+        <v>0.9170649819931782</v>
       </c>
       <c r="G2">
-        <v>1.221946430643186</v>
+        <v>0.7871259100182328</v>
       </c>
       <c r="H2">
-        <v>0.6622716462206313</v>
+        <v>0.7791840144811317</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>4.989378737714048</v>
+        <v>1.5934994602502</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.4782608294158415</v>
+        <v>0.9727383235607192</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1286807339164255</v>
+        <v>0.0438850139643705</v>
       </c>
       <c r="D3">
-        <v>0.004953740253692551</v>
+        <v>0.01314579327325305</v>
       </c>
       <c r="E3">
-        <v>1.247229603186568</v>
+        <v>0.3648985179177231</v>
       </c>
       <c r="F3">
-        <v>1.083366324820361</v>
+        <v>0.890610193046129</v>
       </c>
       <c r="G3">
-        <v>1.07017910744328</v>
+        <v>0.75839825486824</v>
       </c>
       <c r="H3">
-        <v>0.6010321166045287</v>
+        <v>0.7724216530243098</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4.308477695284466</v>
+        <v>1.404877773744147</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5205350680114549</v>
+        <v>0.9881805320442432</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1161489373474751</v>
+        <v>0.04048237419669931</v>
       </c>
       <c r="D4">
-        <v>0.005533868137014508</v>
+        <v>0.01335878948337132</v>
       </c>
       <c r="E4">
-        <v>1.119739056444658</v>
+        <v>0.3320673950023547</v>
       </c>
       <c r="F4">
-        <v>0.9977171479416</v>
+        <v>0.8751832053469855</v>
       </c>
       <c r="G4">
-        <v>0.9809538244627163</v>
+        <v>0.7415356845845196</v>
       </c>
       <c r="H4">
-        <v>0.5655227429057277</v>
+        <v>0.7688684784993143</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>3.895222299442139</v>
+        <v>1.289279243980332</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5477760026424718</v>
+        <v>0.9981615608558769</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1110866533811645</v>
+        <v>0.0391002077597733</v>
       </c>
       <c r="D5">
-        <v>0.005780296032368071</v>
+        <v>0.01344795762859796</v>
       </c>
       <c r="E5">
-        <v>1.068531504822772</v>
+        <v>0.3187176278844532</v>
       </c>
       <c r="F5">
-        <v>0.9636258953454018</v>
+        <v>0.869100001828869</v>
       </c>
       <c r="G5">
-        <v>0.9454729621348434</v>
+        <v>0.7348570102240899</v>
       </c>
       <c r="H5">
-        <v>0.5515244949941547</v>
+        <v>0.7675702349455946</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>3.727816642040978</v>
+        <v>1.242224547857518</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5591843656068676</v>
+        <v>1.002354299348678</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1102485403740587</v>
+        <v>0.03887096485854613</v>
       </c>
       <c r="D6">
-        <v>0.005821787075163343</v>
+        <v>0.01346290650629722</v>
       </c>
       <c r="E6">
-        <v>1.060069648150119</v>
+        <v>0.3165025926020775</v>
       </c>
       <c r="F6">
-        <v>0.9580112251443325</v>
+        <v>0.8681021224418828</v>
       </c>
       <c r="G6">
-        <v>0.9396312861397149</v>
+        <v>0.7337596101891535</v>
       </c>
       <c r="H6">
-        <v>0.5492271300699372</v>
+        <v>0.7673636780524902</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3.700073577132514</v>
+        <v>1.234414283694662</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.561096859430176</v>
+        <v>1.003058067759529</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1160804950894629</v>
+        <v>0.04046371599599752</v>
       </c>
       <c r="D7">
-        <v>0.005537152504052401</v>
+        <v>0.01335998246591519</v>
       </c>
       <c r="E7">
-        <v>1.11904561322072</v>
+        <v>0.3318872407732982</v>
       </c>
       <c r="F7">
-        <v>0.9972542260222923</v>
+        <v>0.8751003439656273</v>
       </c>
       <c r="G7">
-        <v>0.9804719037260554</v>
+        <v>0.7414448353380862</v>
       </c>
       <c r="H7">
-        <v>0.5653321136643257</v>
+        <v>0.7688503649962399</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>3.892960828689468</v>
+        <v>1.288644436887239</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5479286343517806</v>
+        <v>0.9982175981796075</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1422271502922285</v>
+        <v>0.04753142539337318</v>
       </c>
       <c r="D8">
-        <v>0.004372404468700353</v>
+        <v>0.01292666746974636</v>
       </c>
       <c r="E8">
-        <v>1.386226487096991</v>
+        <v>0.4000398216122392</v>
       </c>
       <c r="F8">
-        <v>1.177825316198593</v>
+        <v>0.9077728000861214</v>
       </c>
       <c r="G8">
-        <v>1.168721180324269</v>
+        <v>0.7770581160534391</v>
       </c>
       <c r="H8">
-        <v>0.6406879425023533</v>
+        <v>0.7767274898261576</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>4.753468524215464</v>
+        <v>1.528416812317516</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.4925606193653458</v>
+        <v>0.9779590133703913</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1955425394533421</v>
+        <v>0.06154038195178657</v>
       </c>
       <c r="D9">
-        <v>0.002510484847062955</v>
+        <v>0.01215333635368321</v>
       </c>
       <c r="E9">
-        <v>1.945848248195702</v>
+        <v>0.534823712998687</v>
       </c>
       <c r="F9">
-        <v>1.566086048377301</v>
+        <v>0.9784097686320052</v>
       </c>
       <c r="G9">
-        <v>1.57523829796483</v>
+        <v>0.8531621004884755</v>
       </c>
       <c r="H9">
-        <v>0.807800968795874</v>
+        <v>0.7969699327830995</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>6.490069643491609</v>
+        <v>2.000423834841285</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.3949556096105518</v>
+        <v>0.9422037520638114</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2365803101511545</v>
+        <v>0.07193269707904903</v>
       </c>
       <c r="D10">
-        <v>0.001512476963905662</v>
+        <v>0.01163306499416272</v>
       </c>
       <c r="E10">
-        <v>2.391275526598093</v>
+        <v>0.6347326044212735</v>
       </c>
       <c r="F10">
-        <v>1.880599667995725</v>
+        <v>1.034440151703649</v>
       </c>
       <c r="G10">
-        <v>1.90618542381506</v>
+        <v>0.913050797251401</v>
       </c>
       <c r="H10">
-        <v>0.9467571904868066</v>
+        <v>0.8148284049363781</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>7.813447893916418</v>
+        <v>2.348490100951778</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.3311681796109909</v>
+        <v>0.9183674873758711</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2558187281313309</v>
+        <v>0.07668415196170031</v>
       </c>
       <c r="D11">
-        <v>0.001171279107466283</v>
+        <v>0.0114070796191541</v>
       </c>
       <c r="E11">
-        <v>2.604863059144634</v>
+        <v>0.6804177274038636</v>
       </c>
       <c r="F11">
-        <v>2.032286193451299</v>
+        <v>1.060856226402365</v>
       </c>
       <c r="G11">
-        <v>2.066296907913028</v>
+        <v>0.9411930679733587</v>
       </c>
       <c r="H11">
-        <v>1.014660191186749</v>
+        <v>0.8236151129985387</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>8.430503430039153</v>
+        <v>2.507154237842144</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.3041974498275444</v>
+        <v>0.9080548089233886</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2632019114403903</v>
+        <v>0.07848699084442501</v>
       </c>
       <c r="D12">
-        <v>0.001061763711639685</v>
+        <v>0.01132306862161503</v>
       </c>
       <c r="E12">
-        <v>2.687684897434892</v>
+        <v>0.6977547522600531</v>
       </c>
       <c r="F12">
-        <v>2.09118947364864</v>
+        <v>1.070994939921022</v>
       </c>
       <c r="G12">
-        <v>2.128556985110066</v>
+        <v>0.951981717745042</v>
       </c>
       <c r="H12">
-        <v>1.041165574329426</v>
+        <v>0.8270388240760553</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>8.666798928758055</v>
+        <v>2.567285917556262</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.2943113106257336</v>
+        <v>0.9042262328997914</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.261607169659726</v>
+        <v>0.07809855664281429</v>
       </c>
       <c r="D13">
-        <v>0.001084410746799769</v>
+        <v>0.01134109184752763</v>
       </c>
       <c r="E13">
-        <v>2.669754796952688</v>
+        <v>0.6940192153360556</v>
       </c>
       <c r="F13">
-        <v>2.07843455939414</v>
+        <v>1.068805324985831</v>
       </c>
       <c r="G13">
-        <v>2.115071185049089</v>
+        <v>0.9496522867275985</v>
       </c>
       <c r="H13">
-        <v>1.035419858708849</v>
+        <v>0.82629716316805</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>8.615783214054886</v>
+        <v>2.554333272132965</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.2964253422652767</v>
+        <v>0.9050473727400004</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2564240820817503</v>
+        <v>0.07683240041694717</v>
       </c>
       <c r="D14">
-        <v>0.001161852053003898</v>
+        <v>0.01140013646197513</v>
       </c>
       <c r="E14">
-        <v>2.611635608087241</v>
+        <v>0.6818432940955148</v>
       </c>
       <c r="F14">
-        <v>2.037101464641822</v>
+        <v>1.06168761612237</v>
       </c>
       <c r="G14">
-        <v>2.071384817650738</v>
+        <v>0.9420780007574194</v>
       </c>
       <c r="H14">
-        <v>1.016824189234256</v>
+        <v>0.823894846102263</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>8.44988793997868</v>
+        <v>2.512100313371491</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.3033773495496703</v>
+        <v>0.9077382923993866</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2532625731697067</v>
+        <v>0.07605731127773652</v>
       </c>
       <c r="D15">
-        <v>0.001211966880506843</v>
+        <v>0.01143650760984904</v>
       </c>
       <c r="E15">
-        <v>2.576300773723588</v>
+        <v>0.6743901104634489</v>
       </c>
       <c r="F15">
-        <v>2.011981554715618</v>
+        <v>1.057345526409577</v>
       </c>
       <c r="G15">
-        <v>2.044846119282084</v>
+        <v>0.9374557705544362</v>
       </c>
       <c r="H15">
-        <v>1.00554076506711</v>
+        <v>0.8224359403600943</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>8.348629980069006</v>
+        <v>2.486237849956126</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.3076793125101496</v>
+        <v>0.9093965451007371</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2353358222358679</v>
+        <v>0.07162267056303051</v>
       </c>
       <c r="D16">
-        <v>0.001537324872889378</v>
+        <v>0.01164805110277367</v>
       </c>
       <c r="E16">
-        <v>2.377567187848399</v>
+        <v>0.6317519894448367</v>
       </c>
       <c r="F16">
-        <v>1.870878267655343</v>
+        <v>1.03273264612919</v>
       </c>
       <c r="G16">
-        <v>1.895934972843264</v>
+        <v>0.91122993435377</v>
       </c>
       <c r="H16">
-        <v>0.9424235701753219</v>
+        <v>0.8142676008507692</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>7.773462746852431</v>
+        <v>2.338127775616897</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.3329746523199404</v>
+        <v>0.9190521482542984</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2244950293799945</v>
+        <v>0.06890838075879913</v>
       </c>
       <c r="D17">
-        <v>0.001768058025202635</v>
+        <v>0.01178058324328557</v>
       </c>
       <c r="E17">
-        <v>2.258695448449643</v>
+        <v>0.6056575445321357</v>
       </c>
       <c r="F17">
-        <v>1.78667045713226</v>
+        <v>1.017872525343023</v>
       </c>
       <c r="G17">
-        <v>1.807200093836769</v>
+        <v>0.8953732015755236</v>
       </c>
       <c r="H17">
-        <v>0.9049824020663664</v>
+        <v>0.8094271011666763</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>7.42477803913863</v>
+        <v>2.247352197521025</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.3490384917184706</v>
+        <v>0.9251116591115505</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2183122658473309</v>
+        <v>0.06734943875028421</v>
       </c>
       <c r="D18">
-        <v>0.001911141151187401</v>
+        <v>0.0118578165761436</v>
       </c>
       <c r="E18">
-        <v>2.19132961585305</v>
+        <v>0.5906707402795917</v>
       </c>
       <c r="F18">
-        <v>1.73903164949192</v>
+        <v>1.009412555020177</v>
       </c>
       <c r="G18">
-        <v>1.75704470986085</v>
+        <v>0.8863372536937106</v>
       </c>
       <c r="H18">
-        <v>0.883880730158495</v>
+        <v>0.8067052949300546</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>7.225607816668685</v>
+        <v>2.19517114605236</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.3584683793286025</v>
+        <v>0.9286468483848473</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2162274680696612</v>
+        <v>0.06682198973675213</v>
       </c>
       <c r="D19">
-        <v>0.00196127385311673</v>
+        <v>0.01188413812379174</v>
       </c>
       <c r="E19">
-        <v>2.168683517655907</v>
+        <v>0.5856001555993373</v>
       </c>
       <c r="F19">
-        <v>1.7230323009572</v>
+        <v>1.006563062739588</v>
       </c>
       <c r="G19">
-        <v>1.740207453996703</v>
+        <v>0.8832922595154571</v>
       </c>
       <c r="H19">
-        <v>0.8768072478296745</v>
+        <v>0.8057944096028677</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>7.158396905155143</v>
+        <v>2.177508745179864</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.3616929572908489</v>
+        <v>0.9298523668424927</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2256435006470667</v>
+        <v>0.06919708823096471</v>
       </c>
       <c r="D20">
-        <v>0.001742399860440003</v>
+        <v>0.01176637082687026</v>
       </c>
       <c r="E20">
-        <v>2.27124301115137</v>
+        <v>0.6084330403007101</v>
       </c>
       <c r="F20">
-        <v>1.795550701434053</v>
+        <v>1.019445372588336</v>
       </c>
       <c r="G20">
-        <v>1.816553019883827</v>
+        <v>0.8970524216655349</v>
       </c>
       <c r="H20">
-        <v>0.9089224231658761</v>
+        <v>0.8099359229520644</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>7.461749745203406</v>
+        <v>2.25701222540539</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.3473085419143906</v>
+        <v>0.9244614451567976</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2579436804208797</v>
+        <v>0.07720420341543388</v>
       </c>
       <c r="D21">
-        <v>0.00113853991259294</v>
+        <v>0.01138275093348184</v>
       </c>
       <c r="E21">
-        <v>2.628650669716663</v>
+        <v>0.6854186264217788</v>
       </c>
       <c r="F21">
-        <v>2.049200319851124</v>
+        <v>1.063774564633022</v>
       </c>
       <c r="G21">
-        <v>2.084170102506988</v>
+        <v>0.9442991550065472</v>
       </c>
       <c r="H21">
-        <v>1.02226365958461</v>
+        <v>0.8245978406818324</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>8.49853991514675</v>
+        <v>2.52450381068769</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.3013262122899611</v>
+        <v>0.9069458222598392</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2796343381039321</v>
+        <v>0.08245816051922361</v>
       </c>
       <c r="D22">
-        <v>0.0008608384712305295</v>
+        <v>0.01114116733255521</v>
       </c>
       <c r="E22">
-        <v>2.873777146399249</v>
+        <v>0.7359506573641852</v>
       </c>
       <c r="F22">
-        <v>2.223634590533663</v>
+        <v>1.093537176254031</v>
       </c>
       <c r="G22">
-        <v>2.268721266098169</v>
+        <v>0.9759469699515932</v>
       </c>
       <c r="H22">
-        <v>1.101024674867631</v>
+        <v>0.8347425073698673</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.191748682003379</v>
+        <v>2.699611691115308</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.2731997821059551</v>
+        <v>0.8959450564223417</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2679985273017564</v>
+        <v>0.07965207606893898</v>
       </c>
       <c r="D23">
-        <v>0.0009969980967108327</v>
+        <v>0.01126925985276106</v>
       </c>
       <c r="E23">
-        <v>2.741751633899568</v>
+        <v>0.7089598170280311</v>
       </c>
       <c r="F23">
-        <v>2.129659053385936</v>
+        <v>1.07757922776122</v>
       </c>
       <c r="G23">
-        <v>2.169244309712184</v>
+        <v>0.9589846846224361</v>
       </c>
       <c r="H23">
-        <v>1.058515486844158</v>
+        <v>0.8292763050485235</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>8.820166418436429</v>
+        <v>2.606126415355618</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.2880229502484219</v>
+        <v>0.9017753904242767</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2251241229947283</v>
+        <v>0.06906655879708978</v>
       </c>
       <c r="D24">
-        <v>0.001753967676865642</v>
+        <v>0.01177279302621326</v>
       </c>
       <c r="E24">
-        <v>2.265567247219494</v>
+        <v>0.6071781914303642</v>
       </c>
       <c r="F24">
-        <v>1.791533550514785</v>
+        <v>1.018734029014496</v>
       </c>
       <c r="G24">
-        <v>1.812321903562491</v>
+        <v>0.8962929963429076</v>
       </c>
       <c r="H24">
-        <v>0.9071398283354313</v>
+        <v>0.8097056945102281</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>7.445030842822803</v>
+        <v>2.252644905027239</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.3480900485949405</v>
+        <v>0.9247552465121238</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1808412035336886</v>
+        <v>0.05773369380345628</v>
       </c>
       <c r="D25">
-        <v>0.002958628577245825</v>
+        <v>0.01235423079047848</v>
       </c>
       <c r="E25">
-        <v>1.789467435288458</v>
+        <v>0.4982199127470608</v>
       </c>
       <c r="F25">
-        <v>1.45659195001592</v>
+        <v>0.9585842403963909</v>
       </c>
       <c r="G25">
-        <v>1.460362089024187</v>
+        <v>0.8318871844046782</v>
       </c>
       <c r="H25">
-        <v>0.7601050384780592</v>
+        <v>0.7909739811219083</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>6.013345816009007</v>
+        <v>1.872521181384002</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.4200681826333401</v>
+        <v>0.9514501134007958</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_196/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_196/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04945618783204964</v>
+        <v>0.1494293057081677</v>
       </c>
       <c r="D2">
-        <v>0.01281438384477074</v>
+        <v>0.004081901829097845</v>
       </c>
       <c r="E2">
-        <v>0.4185757265276635</v>
+        <v>1.460637553944366</v>
       </c>
       <c r="F2">
-        <v>0.9170649819931782</v>
+        <v>1.228787973919722</v>
       </c>
       <c r="G2">
-        <v>0.7871259100182328</v>
+        <v>1.221946430643072</v>
       </c>
       <c r="H2">
-        <v>0.7791840144811317</v>
+        <v>0.6622716462206597</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.5934994602502</v>
+        <v>4.989378737713992</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9727383235607192</v>
+        <v>0.4782608294158415</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0438850139643705</v>
+        <v>0.1286807339164255</v>
       </c>
       <c r="D3">
-        <v>0.01314579327325305</v>
+        <v>0.004953740253808903</v>
       </c>
       <c r="E3">
-        <v>0.3648985179177231</v>
+        <v>1.247229603186526</v>
       </c>
       <c r="F3">
-        <v>0.890610193046129</v>
+        <v>1.083366324820346</v>
       </c>
       <c r="G3">
-        <v>0.75839825486824</v>
+        <v>1.070179107443266</v>
       </c>
       <c r="H3">
-        <v>0.7724216530243098</v>
+        <v>0.6010321166045287</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.404877773744147</v>
+        <v>4.308477695284409</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9881805320442432</v>
+        <v>0.520535068011462</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04048237419669931</v>
+        <v>0.1161489373474751</v>
       </c>
       <c r="D4">
-        <v>0.01335878948337132</v>
+        <v>0.005533868136868847</v>
       </c>
       <c r="E4">
-        <v>0.3320673950023547</v>
+        <v>1.119739056444658</v>
       </c>
       <c r="F4">
-        <v>0.8751832053469855</v>
+        <v>0.9977171479416</v>
       </c>
       <c r="G4">
-        <v>0.7415356845845196</v>
+        <v>0.9809538244627021</v>
       </c>
       <c r="H4">
-        <v>0.7688684784993143</v>
+        <v>0.5655227429058414</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.289279243980332</v>
+        <v>3.895222299442082</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9981615608558769</v>
+        <v>0.5477760026424612</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0391002077597733</v>
+        <v>0.111086653381065</v>
       </c>
       <c r="D5">
-        <v>0.01344795762859796</v>
+        <v>0.005780296032206422</v>
       </c>
       <c r="E5">
-        <v>0.3187176278844532</v>
+        <v>1.068531504822786</v>
       </c>
       <c r="F5">
-        <v>0.869100001828869</v>
+        <v>0.9636258953454018</v>
       </c>
       <c r="G5">
-        <v>0.7348570102240899</v>
+        <v>0.9454729621348434</v>
       </c>
       <c r="H5">
-        <v>0.7675702349455946</v>
+        <v>0.5515244949941547</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.242224547857518</v>
+        <v>3.727816642040864</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.002354299348678</v>
+        <v>0.5591843656069244</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03887096485854613</v>
+        <v>0.1102485403741014</v>
       </c>
       <c r="D6">
-        <v>0.01346290650629722</v>
+        <v>0.005821787075214857</v>
       </c>
       <c r="E6">
-        <v>0.3165025926020775</v>
+        <v>1.06006964815009</v>
       </c>
       <c r="F6">
-        <v>0.8681021224418828</v>
+        <v>0.9580112251443182</v>
       </c>
       <c r="G6">
-        <v>0.7337596101891535</v>
+        <v>0.9396312861397149</v>
       </c>
       <c r="H6">
-        <v>0.7673636780524902</v>
+        <v>0.5492271300699372</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.234414283694662</v>
+        <v>3.7000735771324</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.003058067759529</v>
+        <v>0.5610968594301937</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04046371599599752</v>
+        <v>0.1160804950894629</v>
       </c>
       <c r="D7">
-        <v>0.01335998246591519</v>
+        <v>0.005537152504054177</v>
       </c>
       <c r="E7">
-        <v>0.3318872407732982</v>
+        <v>1.119045613220734</v>
       </c>
       <c r="F7">
-        <v>0.8751003439656273</v>
+        <v>0.9972542260222923</v>
       </c>
       <c r="G7">
-        <v>0.7414448353380862</v>
+        <v>0.9804719037260838</v>
       </c>
       <c r="H7">
-        <v>0.7688503649962399</v>
+        <v>0.5653321136643257</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.288644436887239</v>
+        <v>3.892960828689525</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9982175981796075</v>
+        <v>0.5479286343517806</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04753142539337318</v>
+        <v>0.1422271502926407</v>
       </c>
       <c r="D8">
-        <v>0.01292666746974636</v>
+        <v>0.004372404468621305</v>
       </c>
       <c r="E8">
-        <v>0.4000398216122392</v>
+        <v>1.386226487096991</v>
       </c>
       <c r="F8">
-        <v>0.9077728000861214</v>
+        <v>1.177825316198607</v>
       </c>
       <c r="G8">
-        <v>0.7770581160534391</v>
+        <v>1.168721180324269</v>
       </c>
       <c r="H8">
-        <v>0.7767274898261576</v>
+        <v>0.6406879425023533</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.528416812317516</v>
+        <v>4.753468524215464</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9779590133703913</v>
+        <v>0.4925606193653458</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06154038195178657</v>
+        <v>0.1955425394535411</v>
       </c>
       <c r="D9">
-        <v>0.01215333635368321</v>
+        <v>0.00251048484707006</v>
       </c>
       <c r="E9">
-        <v>0.534823712998687</v>
+        <v>1.945848248195716</v>
       </c>
       <c r="F9">
-        <v>0.9784097686320052</v>
+        <v>1.566086048377315</v>
       </c>
       <c r="G9">
-        <v>0.8531621004884755</v>
+        <v>1.575238297964887</v>
       </c>
       <c r="H9">
-        <v>0.7969699327830995</v>
+        <v>0.8078009687957604</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.000423834841285</v>
+        <v>6.490069643491722</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9422037520638114</v>
+        <v>0.3949556096105518</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07193269707904903</v>
+        <v>0.2365803101511545</v>
       </c>
       <c r="D10">
-        <v>0.01163306499416272</v>
+        <v>0.001512476963914544</v>
       </c>
       <c r="E10">
-        <v>0.6347326044212735</v>
+        <v>2.391275526598108</v>
       </c>
       <c r="F10">
-        <v>1.034440151703649</v>
+        <v>1.880599667995739</v>
       </c>
       <c r="G10">
-        <v>0.913050797251401</v>
+        <v>1.906185423815003</v>
       </c>
       <c r="H10">
-        <v>0.8148284049363781</v>
+        <v>0.9467571904866929</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.348490100951778</v>
+        <v>7.813447893916646</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9183674873758711</v>
+        <v>0.3311681796109234</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07668415196170031</v>
+        <v>0.2558187281308903</v>
       </c>
       <c r="D11">
-        <v>0.0114070796191541</v>
+        <v>0.001171279107468948</v>
       </c>
       <c r="E11">
-        <v>0.6804177274038636</v>
+        <v>2.604863059144606</v>
       </c>
       <c r="F11">
-        <v>1.060856226402365</v>
+        <v>2.032286193451284</v>
       </c>
       <c r="G11">
-        <v>0.9411930679733587</v>
+        <v>2.066296907913056</v>
       </c>
       <c r="H11">
-        <v>0.8236151129985387</v>
+        <v>1.014660191186636</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.507154237842144</v>
+        <v>8.430503430039209</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9080548089233886</v>
+        <v>0.3041974498275515</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07848699084442501</v>
+        <v>0.2632019114401771</v>
       </c>
       <c r="D12">
-        <v>0.01132306862161503</v>
+        <v>0.001061763711634356</v>
       </c>
       <c r="E12">
-        <v>0.6977547522600531</v>
+        <v>2.687684897434892</v>
       </c>
       <c r="F12">
-        <v>1.070994939921022</v>
+        <v>2.091189473648654</v>
       </c>
       <c r="G12">
-        <v>0.951981717745042</v>
+        <v>2.128556985110066</v>
       </c>
       <c r="H12">
-        <v>0.8270388240760553</v>
+        <v>1.041165574329426</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.567285917556262</v>
+        <v>8.666798928757885</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9042262328997914</v>
+        <v>0.29431131062573</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07809855664281429</v>
+        <v>0.2616071696599249</v>
       </c>
       <c r="D13">
-        <v>0.01134109184752763</v>
+        <v>0.001084410746782893</v>
       </c>
       <c r="E13">
-        <v>0.6940192153360556</v>
+        <v>2.66975479695266</v>
       </c>
       <c r="F13">
-        <v>1.068805324985831</v>
+        <v>2.07843455939414</v>
       </c>
       <c r="G13">
-        <v>0.9496522867275985</v>
+        <v>2.115071185049032</v>
       </c>
       <c r="H13">
-        <v>0.82629716316805</v>
+        <v>1.035419858708849</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.554333272132965</v>
+        <v>8.615783214055</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9050473727400004</v>
+        <v>0.2964253422652767</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07683240041694717</v>
+        <v>0.2564240820819776</v>
       </c>
       <c r="D14">
-        <v>0.01140013646197513</v>
+        <v>0.001161852052792511</v>
       </c>
       <c r="E14">
-        <v>0.6818432940955148</v>
+        <v>2.611635608087212</v>
       </c>
       <c r="F14">
-        <v>1.06168761612237</v>
+        <v>2.037101464641822</v>
       </c>
       <c r="G14">
-        <v>0.9420780007574194</v>
+        <v>2.071384817650738</v>
       </c>
       <c r="H14">
-        <v>0.823894846102263</v>
+        <v>1.016824189234256</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.512100313371491</v>
+        <v>8.44988793997868</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9077382923993866</v>
+        <v>0.3033773495496668</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07605731127773652</v>
+        <v>0.2532625731694935</v>
       </c>
       <c r="D15">
-        <v>0.01143650760984904</v>
+        <v>0.001211966880623194</v>
       </c>
       <c r="E15">
-        <v>0.6743901104634489</v>
+        <v>2.576300773723588</v>
       </c>
       <c r="F15">
-        <v>1.057345526409577</v>
+        <v>2.011981554715604</v>
       </c>
       <c r="G15">
-        <v>0.9374557705544362</v>
+        <v>2.044846119282141</v>
       </c>
       <c r="H15">
-        <v>0.8224359403600943</v>
+        <v>1.005540765067082</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.486237849956126</v>
+        <v>8.34862998006912</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9093965451007371</v>
+        <v>0.3076793125101105</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07162267056303051</v>
+        <v>0.2353358222360811</v>
       </c>
       <c r="D16">
-        <v>0.01164805110277367</v>
+        <v>0.001537324873004842</v>
       </c>
       <c r="E16">
-        <v>0.6317519894448367</v>
+        <v>2.377567187848371</v>
       </c>
       <c r="F16">
-        <v>1.03273264612919</v>
+        <v>1.870878267655328</v>
       </c>
       <c r="G16">
-        <v>0.91122993435377</v>
+        <v>1.895934972843293</v>
       </c>
       <c r="H16">
-        <v>0.8142676008507692</v>
+        <v>0.9424235701753503</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.338127775616897</v>
+        <v>7.773462746852488</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9190521482542984</v>
+        <v>0.3329746523199439</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06890838075879913</v>
+        <v>0.2244950293798098</v>
       </c>
       <c r="D17">
-        <v>0.01178058324328557</v>
+        <v>0.001768058025113817</v>
       </c>
       <c r="E17">
-        <v>0.6056575445321357</v>
+        <v>2.258695448449629</v>
       </c>
       <c r="F17">
-        <v>1.017872525343023</v>
+        <v>1.78667045713226</v>
       </c>
       <c r="G17">
-        <v>0.8953732015755236</v>
+        <v>1.807200093836883</v>
       </c>
       <c r="H17">
-        <v>0.8094271011666763</v>
+        <v>0.9049824020662243</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.247352197521025</v>
+        <v>7.42477803913863</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9251116591115505</v>
+        <v>0.3490384917184741</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06734943875028421</v>
+        <v>0.2183122658473167</v>
       </c>
       <c r="D18">
-        <v>0.0118578165761436</v>
+        <v>0.001911141151167861</v>
       </c>
       <c r="E18">
-        <v>0.5906707402795917</v>
+        <v>2.191329615853093</v>
       </c>
       <c r="F18">
-        <v>1.009412555020177</v>
+        <v>1.73903164949192</v>
       </c>
       <c r="G18">
-        <v>0.8863372536937106</v>
+        <v>1.757044709860821</v>
       </c>
       <c r="H18">
-        <v>0.8067052949300546</v>
+        <v>0.8838807301586087</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.19517114605236</v>
+        <v>7.225607816668571</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9286468483848473</v>
+        <v>0.3584683793286629</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06682198973675213</v>
+        <v>0.2162274680701444</v>
       </c>
       <c r="D19">
-        <v>0.01188413812379174</v>
+        <v>0.001961273853318346</v>
       </c>
       <c r="E19">
-        <v>0.5856001555993373</v>
+        <v>2.168683517655893</v>
       </c>
       <c r="F19">
-        <v>1.006563062739588</v>
+        <v>1.7230323009572</v>
       </c>
       <c r="G19">
-        <v>0.8832922595154571</v>
+        <v>1.740207453996732</v>
       </c>
       <c r="H19">
-        <v>0.8057944096028677</v>
+        <v>0.8768072478295608</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.177508745179864</v>
+        <v>7.158396905155314</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9298523668424927</v>
+        <v>0.3616929572907885</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06919708823096471</v>
+        <v>0.225643500646953</v>
       </c>
       <c r="D20">
-        <v>0.01176637082687026</v>
+        <v>0.001742399860457766</v>
       </c>
       <c r="E20">
-        <v>0.6084330403007101</v>
+        <v>2.271243011151398</v>
       </c>
       <c r="F20">
-        <v>1.019445372588336</v>
+        <v>1.795550701434067</v>
       </c>
       <c r="G20">
-        <v>0.8970524216655349</v>
+        <v>1.816553019883827</v>
       </c>
       <c r="H20">
-        <v>0.8099359229520644</v>
+        <v>0.9089224231658761</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.25701222540539</v>
+        <v>7.461749745203406</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9244614451567976</v>
+        <v>0.3473085419143374</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07720420341543388</v>
+        <v>0.2579436804206665</v>
       </c>
       <c r="D21">
-        <v>0.01138275093348184</v>
+        <v>0.001138539912693304</v>
       </c>
       <c r="E21">
-        <v>0.6854186264217788</v>
+        <v>2.628650669716606</v>
       </c>
       <c r="F21">
-        <v>1.063774564633022</v>
+        <v>2.049200319851096</v>
       </c>
       <c r="G21">
-        <v>0.9442991550065472</v>
+        <v>2.084170102507017</v>
       </c>
       <c r="H21">
-        <v>0.8245978406818324</v>
+        <v>1.022263659584723</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.52450381068769</v>
+        <v>8.498539915146694</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9069458222598392</v>
+        <v>0.3013262122899683</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08245816051922361</v>
+        <v>0.279634338103719</v>
       </c>
       <c r="D22">
-        <v>0.01114116733255521</v>
+        <v>0.0008608384712189832</v>
       </c>
       <c r="E22">
-        <v>0.7359506573641852</v>
+        <v>2.873777146399334</v>
       </c>
       <c r="F22">
-        <v>1.093537176254031</v>
+        <v>2.223634590533706</v>
       </c>
       <c r="G22">
-        <v>0.9759469699515932</v>
+        <v>2.268721266098169</v>
       </c>
       <c r="H22">
-        <v>0.8347425073698673</v>
+        <v>1.101024674867602</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.699611691115308</v>
+        <v>9.191748682003436</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8959450564223417</v>
+        <v>0.2731997821059551</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07965207606893898</v>
+        <v>0.2679985273019554</v>
       </c>
       <c r="D23">
-        <v>0.01126925985276106</v>
+        <v>0.0009969980968183023</v>
       </c>
       <c r="E23">
-        <v>0.7089598170280311</v>
+        <v>2.741751633899582</v>
       </c>
       <c r="F23">
-        <v>1.07757922776122</v>
+        <v>2.129659053385936</v>
       </c>
       <c r="G23">
-        <v>0.9589846846224361</v>
+        <v>2.169244309712184</v>
       </c>
       <c r="H23">
-        <v>0.8292763050485235</v>
+        <v>1.058515486844186</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.606126415355618</v>
+        <v>8.820166418436486</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9017753904242767</v>
+        <v>0.2880229502484362</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06906655879708978</v>
+        <v>0.2251241229946146</v>
       </c>
       <c r="D24">
-        <v>0.01177279302621326</v>
+        <v>0.001753967676734192</v>
       </c>
       <c r="E24">
-        <v>0.6071781914303642</v>
+        <v>2.265567247219508</v>
       </c>
       <c r="F24">
-        <v>1.018734029014496</v>
+        <v>1.791533550514814</v>
       </c>
       <c r="G24">
-        <v>0.8962929963429076</v>
+        <v>1.812321903562463</v>
       </c>
       <c r="H24">
-        <v>0.8097056945102281</v>
+        <v>0.9071398283353176</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.252644905027239</v>
+        <v>7.44503084282286</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9247552465121238</v>
+        <v>0.3480900485949299</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05773369380345628</v>
+        <v>0.1808412035334612</v>
       </c>
       <c r="D25">
-        <v>0.01235423079047848</v>
+        <v>0.00295862857732665</v>
       </c>
       <c r="E25">
-        <v>0.4982199127470608</v>
+        <v>1.789467435288472</v>
       </c>
       <c r="F25">
-        <v>0.9585842403963909</v>
+        <v>1.456591950015934</v>
       </c>
       <c r="G25">
-        <v>0.8318871844046782</v>
+        <v>1.460362089024187</v>
       </c>
       <c r="H25">
-        <v>0.7909739811219083</v>
+        <v>0.7601050384780592</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.872521181384002</v>
+        <v>6.01334581600895</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9514501134007958</v>
+        <v>0.4200681826333295</v>
       </c>
       <c r="O25">
         <v>0</v>
